--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,10 +43,19 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>drop</t>
   </si>
   <si>
     <t>low</t>
@@ -64,6 +73,9 @@
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -76,10 +88,22 @@
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>great</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>support</t>
@@ -88,67 +112,52 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -514,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -575,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.7602739726027398</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -593,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -625,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4476744186046512</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C4">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>285</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -675,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4338624338624338</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C5">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.8833333333333333</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -717,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -725,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2416107382550336</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.8485639686684073</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>325</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>325</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1388888888888889</v>
+        <v>0.4748062015503876</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -793,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.83125</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -817,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -825,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0938337801608579</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -843,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>338</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.839622641509434</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L8">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -867,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -875,37 +884,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01390236016812156</v>
+        <v>0.3221476510067114</v>
       </c>
       <c r="C9">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E9">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>3050</v>
+        <v>101</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.8067885117493473</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>309</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>309</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -917,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -925,37 +934,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.01177024482109228</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>44</v>
       </c>
       <c r="E10">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5700000000000001</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2099</v>
+        <v>208</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -967,21 +976,45 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.1152815013404826</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>330</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8098591549295775</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L11">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -993,73 +1026,145 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.01942376173518938</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>78</v>
+      </c>
+      <c r="E12">
+        <v>0.23</v>
+      </c>
+      <c r="F12">
+        <v>0.77</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3029</v>
+      </c>
       <c r="J12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>0.7924528301886793</v>
+      </c>
+      <c r="L12">
+        <v>84</v>
+      </c>
+      <c r="M12">
+        <v>84</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.0132013201320132</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>0.44</v>
+      </c>
+      <c r="F13">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2093</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="L13">
         <v>26</v>
       </c>
-      <c r="K12">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="L12">
+      <c r="M13">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.009215125516364792</v>
+      </c>
+      <c r="C14">
         <v>29</v>
       </c>
-      <c r="M12">
-        <v>29</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="J13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13">
-        <v>0.79375</v>
-      </c>
-      <c r="L13">
-        <v>127</v>
-      </c>
-      <c r="M13">
-        <v>127</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="D14">
+        <v>83</v>
+      </c>
+      <c r="E14">
+        <v>0.65</v>
+      </c>
+      <c r="F14">
+        <v>0.35</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3118</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K14">
-        <v>0.7926829268292683</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1071,21 +1176,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K15">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1097,12 +1202,12 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K16">
         <v>0.75</v>
@@ -1128,16 +1233,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>0.7441860465116279</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1149,21 +1254,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>0.7301587301587301</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1175,21 +1280,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>0.723404255319149</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1201,21 +1306,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1227,21 +1332,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1253,21 +1358,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>0.6705882352941176</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L22">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="M22">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1279,21 +1384,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>0.6153846153846154</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1305,47 +1410,47 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>0.606694560669456</v>
+        <v>0.6020408163265306</v>
       </c>
       <c r="L24">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="M24">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>0.5864406779661017</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L25">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="M25">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1357,21 +1462,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>122</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.5638297872340425</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L26">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="M26">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1383,15 +1488,15 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.5285714285714286</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L27">
         <v>37</v>
@@ -1409,21 +1514,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.5168539325842697</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1435,15 +1540,15 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.3561643835616438</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L29">
         <v>26</v>
@@ -1461,33 +1566,33 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K30">
-        <v>0.01727386934673367</v>
+        <v>0.01702395964691047</v>
       </c>
       <c r="L30">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M30">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="N30">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
       <c r="O30">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>3129</v>
+        <v>3118</v>
       </c>
     </row>
   </sheetData>
